--- a/СВОДНАЯ ВЕДОМОСТЬ ОТСТУПЛЕНИЙ.xlsx
+++ b/СВОДНАЯ ВЕДОМОСТЬ ОТСТУПЛЕНИЙ.xlsx
@@ -31,9 +31,6 @@
     <t>Дорога, Дистанция :</t>
   </si>
   <si>
-    <t>$RAILWAY$ ЖД, ПЧ-_______</t>
-  </si>
-  <si>
     <t xml:space="preserve">Дата, тип проверки : </t>
   </si>
   <si>
@@ -94,7 +91,10 @@
     <t>$REPORT_DATE$</t>
   </si>
   <si>
-    <t>$SIGNED$</t>
+    <t>$CURRENT_OPERATOR$</t>
+  </si>
+  <si>
+    <t>$SITEID$ ЖД, ПЧ-_______</t>
   </si>
 </sst>
 </file>
@@ -354,6 +354,43 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -366,27 +403,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -396,28 +418,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -725,7 +725,7 @@
   <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+      <selection activeCell="K4" sqref="K4:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,28 +751,28 @@
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -789,89 +789,89 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
-      <c r="AL1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
+      <c r="AL1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
       <c r="AT1" s="3"/>
       <c r="AU1" s="3"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -908,29 +908,29 @@
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
+      <c r="K4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -961,22 +961,22 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="K5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -1014,19 +1014,19 @@
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="27" t="s">
-        <v>26</v>
+      <c r="K6" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1115,164 +1115,164 @@
       <c r="AU7" s="3"/>
     </row>
     <row r="8" spans="1:47" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="14" t="s">
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="14" t="s">
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="14" t="s">
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="14" t="s">
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="17" t="s">
+      <c r="AT8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AT8" s="8" t="s">
+      <c r="AU8" s="21" t="s">
         <v>18</v>
-      </c>
-      <c r="AU8" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="6" t="s">
+      <c r="W9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="X9" s="10" t="s">
+      <c r="X9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="6" t="s">
+      <c r="AD9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AD9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE9" s="10" t="s">
+      <c r="AE9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="6" t="s">
+      <c r="AK9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AK9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL9" s="10" t="s">
+      <c r="AL9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="6" t="s">
+      <c r="AR9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AR9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS9" s="18"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="24"/>
     </row>
     <row r="10" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="1">
         <v>0</v>
       </c>
@@ -1286,10 +1286,10 @@
         <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="1">
         <v>0</v>
       </c>
@@ -1303,10 +1303,10 @@
         <v>40</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="O10" s="20"/>
+      <c r="P10" s="22"/>
       <c r="Q10" s="1">
         <v>0</v>
       </c>
@@ -1320,10 +1320,10 @@
         <v>40</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="V10" s="20"/>
+      <c r="W10" s="22"/>
       <c r="X10" s="1">
         <v>0</v>
       </c>
@@ -1337,10 +1337,10 @@
         <v>40</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="22"/>
       <c r="AE10" s="1">
         <v>0</v>
       </c>
@@ -1354,10 +1354,10 @@
         <v>40</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="22"/>
       <c r="AL10" s="1">
         <v>0</v>
       </c>
@@ -1371,17 +1371,17 @@
         <v>40</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="27"/>
+      <c r="AT10" s="22"/>
+      <c r="AU10" s="22"/>
     </row>
     <row r="11" spans="1:47" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1432,24 +1432,11 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AL1:AS1"/>
-    <mergeCell ref="A2:AU2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
     <mergeCell ref="AU8:AU10"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:H10"/>
@@ -1466,11 +1453,24 @@
     <mergeCell ref="AL8:AR8"/>
     <mergeCell ref="AS8:AS10"/>
     <mergeCell ref="AT8:AT10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AP9"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="AL1:AS1"/>
+    <mergeCell ref="A2:AU2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="K4:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
